--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ADF/20/seed5/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.155499999999996</v>
+        <v>-6.150299999999995</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.942900000000001</v>
+        <v>-7.872100000000001</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.2703</v>
+        <v>12.42230000000001</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.225699999999994</v>
+        <v>-8.261399999999997</v>
       </c>
       <c r="E7" t="n">
-        <v>12.7724</v>
+        <v>12.3513</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.557399999999996</v>
+        <v>-8.483799999999995</v>
       </c>
       <c r="E8" t="n">
-        <v>12.2356</v>
+        <v>12.5858</v>
       </c>
     </row>
     <row r="9">
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.81330000000003</v>
+        <v>-21.94390000000003</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.72340000000002</v>
+        <v>-22.77640000000002</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -641,7 +641,7 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.347800000000007</v>
+        <v>-8.46010000000001</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.572399999999998</v>
+        <v>-8.672800000000002</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.45200000000002</v>
+        <v>-21.44610000000002</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.7114</v>
+        <v>12.8894</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.62869999999999</v>
+        <v>12.60819999999999</v>
       </c>
     </row>
     <row r="22">
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.889200000000001</v>
+        <v>-8.007899999999999</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.59279999999999</v>
+        <v>12.96769999999999</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.35420000000001</v>
+        <v>13.17250000000001</v>
       </c>
     </row>
   </sheetData>
